--- a/tests/edb/data/roadclass_settings.xlsx
+++ b/tests/edb/data/roadclass_settings.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="RoadAttribute" sheetId="1" state="visible" r:id="rId2"/>
@@ -66,11 +66,12 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="5">
+  <fonts count="4">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -86,12 +87,6 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="2"/>
-      <charset val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -145,7 +140,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -168,11 +163,11 @@
   </sheetPr>
   <dimension ref="A1:B3"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B3" activeCellId="0" sqref="B3"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="F17" activeCellId="1" sqref="A2:C3 F17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -216,11 +211,11 @@
   </sheetPr>
   <dimension ref="A1:C7"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A6" activeCellId="1" sqref="A2:C3 A6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="14.49"/>
   </cols>
